--- a/data/trans_orig/P34B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Edad-trans_orig.xlsx
@@ -651,7 +651,7 @@
         <v>0.2217101081319341</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2185356864257168</v>
+        <v>0.2185356864257169</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.576454580174136</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8354230437002776</v>
+        <v>0.8460149244119278</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8154066641888829</v>
+        <v>0.8226246765509839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.926611948811069</v>
+        <v>0.9216901381293565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07930667391793432</v>
+        <v>0.08225307324803335</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1518027895463568</v>
+        <v>0.1523828359770247</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1216682220207199</v>
+        <v>0.1181335337822152</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4883173984328122</v>
+        <v>0.481192387895999</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5191190931820855</v>
+        <v>0.5183790832401489</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5895133222696427</v>
+        <v>0.6010085610876872</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.187255043978648</v>
+        <v>1.185962809726763</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.172364427178836</v>
+        <v>1.194402798158865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.480288273337554</v>
+        <v>1.492623788310174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2013048354478877</v>
+        <v>0.2021543649321725</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3216619267941517</v>
+        <v>0.3213611122147219</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3737704500488364</v>
+        <v>0.3762595642403647</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6806816555538928</v>
+        <v>0.6724212411670802</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7296115643603025</v>
+        <v>0.7347486244426464</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9220812522512026</v>
+        <v>0.9347493065884215</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5987393181851454</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7638901187232401</v>
+        <v>0.76389011872324</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.0650388603717184</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4990985692046161</v>
+        <v>0.4929930474375765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4967728247183321</v>
+        <v>0.4933112471811101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5959568172328498</v>
+        <v>0.593121999541924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02934821368926202</v>
+        <v>0.02852116367280685</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07391623178819491</v>
+        <v>0.07049896869646012</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1178412909203477</v>
+        <v>0.1141155663939499</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2911376325512855</v>
+        <v>0.2893771743535611</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2982874239791441</v>
+        <v>0.3016614507603696</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3812542744196416</v>
+        <v>0.3805190809880978</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7178339142293105</v>
+        <v>0.7202685720996147</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7330639757943224</v>
+        <v>0.7291315285323927</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9742007482874167</v>
+        <v>0.978475066590778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1269164627346047</v>
+        <v>0.1209326940824604</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1765641900830205</v>
+        <v>0.1724036962271839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3024053561269051</v>
+        <v>0.3085866636136978</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4170705529339904</v>
+        <v>0.4131416238136172</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4322604573384278</v>
+        <v>0.4391425533800974</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5957978809153124</v>
+        <v>0.5965013552012347</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.2037067360273085</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.317238118541835</v>
+        <v>0.3172381185418351</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.192980764210873</v>
+        <v>0.2009995538664159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2345105061839655</v>
+        <v>0.2305687738718167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4183668887723476</v>
+        <v>0.4198809413865098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01105260615532742</v>
+        <v>0.01182771659691702</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05774041940401263</v>
+        <v>0.05918040544979818</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06996371416914637</v>
+        <v>0.06666529310849814</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1107959588861954</v>
+        <v>0.1090403887685655</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1603344465518775</v>
+        <v>0.1587282651613431</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2595249304506408</v>
+        <v>0.2571928610927983</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3294829807757318</v>
+        <v>0.3383316262620457</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4059187459319119</v>
+        <v>0.4083134318330739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6888041247087526</v>
+        <v>0.6743413929442122</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08404904099562441</v>
+        <v>0.08375531260939793</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1497111335597607</v>
+        <v>0.1547941113872894</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1552549327953012</v>
+        <v>0.1570350622592006</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.185953049918858</v>
+        <v>0.1884847528483229</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2554580654802452</v>
+        <v>0.2562770620273524</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3909971100780938</v>
+        <v>0.3979290072200214</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.1573177058351419</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3295550174221052</v>
+        <v>0.3295550174221051</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.006224735792627111</v>
@@ -978,7 +978,7 @@
         <v>0.0493465424175412</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.08547812626999143</v>
+        <v>0.08547812626999142</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.09120892754856462</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1209405448107314</v>
+        <v>0.1241675457902272</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.106272334639688</v>
+        <v>0.09958026911245198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2447016466664096</v>
+        <v>0.2537104295741645</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02274096575699259</v>
+        <v>0.01943809644711999</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05485523444951993</v>
+        <v>0.05894677700558761</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06248402514394171</v>
+        <v>0.05949383218902112</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07186209111584628</v>
+        <v>0.07138389776914598</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.162622267708881</v>
+        <v>0.161238504590192</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2688500929633541</v>
+        <v>0.2565922109186223</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.238942093306401</v>
+        <v>0.2335207012163882</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4219196140216428</v>
+        <v>0.425554702122953</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03490345782807165</v>
+        <v>0.0312534948889697</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1031941517404687</v>
+        <v>0.09962919280882057</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.122557502952633</v>
+        <v>0.1246298652675842</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1357548382480939</v>
+        <v>0.1352843500300996</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1468498686949571</v>
+        <v>0.1461708003577041</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2579013307299964</v>
+        <v>0.2590306631268576</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>0.004515165494462239</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.04730599944460478</v>
+        <v>0.0473059994446048</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.02464517326773814</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009116818224652472</v>
+        <v>0.007279566381100165</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08498216848249511</v>
+        <v>0.08405685495393406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1062560961177251</v>
+        <v>0.1059898142293757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00677861310919238</v>
+        <v>0.004708752466698453</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0246387602508843</v>
+        <v>0.02233196177474851</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01127226092503576</v>
+        <v>0.01062933291228002</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04079457088492447</v>
+        <v>0.04268670831556624</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07264523742721914</v>
+        <v>0.07497720974016625</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08057718443220246</v>
+        <v>0.08535389602633045</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2337848607713913</v>
+        <v>0.2462043420199621</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2216564457608402</v>
+        <v>0.2247921080432055</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06402847178344845</v>
+        <v>0.06660334906182752</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01507173013144599</v>
+        <v>0.01579535511604849</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08622226206082488</v>
+        <v>0.08773587355180697</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05336357799713843</v>
+        <v>0.05478868115101871</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1177598543086715</v>
+        <v>0.1181559625623323</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1454176173288115</v>
+        <v>0.1435639542143065</v>
       </c>
     </row>
     <row r="19">
@@ -1187,7 +1187,7 @@
         <v>0.005611206024768181</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.04895039352795443</v>
+        <v>0.04895039352795442</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.008369736779334579</v>
@@ -1216,29 +1216,29 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04229117118697702</v>
+        <v>0.03599678996847933</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02204672517869168</v>
+        <v>0.02109139828311997</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.005562959488698944</v>
+        <v>0.005571947533893585</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02247540893919744</v>
+        <v>0.02411269626961731</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01735328985878914</v>
+        <v>0.01559030544190339</v>
       </c>
     </row>
     <row r="21">
@@ -1249,29 +1249,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2199920595882997</v>
+        <v>0.2377608149490222</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03227271276188987</v>
+        <v>0.02807986428572524</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09888270440765684</v>
+        <v>0.1012479744846048</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03096828554714129</v>
+        <v>0.03066230536099662</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.0513388955190395</v>
+        <v>0.05228674877604281</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1109769679389716</v>
+        <v>0.1125013477263923</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01308738133415102</v>
+        <v>0.01323170330391053</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06181881092342042</v>
+        <v>0.05800114190604661</v>
       </c>
     </row>
     <row r="22">
@@ -1310,7 +1310,7 @@
         <v>0.006183826550468114</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.01241443492375209</v>
+        <v>0.01241443492375208</v>
       </c>
     </row>
     <row r="23">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.002787313249061038</v>
+        <v>0.002768022629153329</v>
       </c>
     </row>
     <row r="24">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.09542914842577967</v>
+        <v>0.09218274570569254</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06415328620109996</v>
+        <v>0.06441952627436454</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.04462223486726534</v>
+        <v>0.04475120864022279</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.0259483500383076</v>
+        <v>0.03119279294188876</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03462619981240703</v>
+        <v>0.03375349657589415</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1394,7 @@
         <v>0.07034506183827244</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.09374483141801992</v>
+        <v>0.09374483141801991</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.1904765834553699</v>
@@ -1414,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.309030489229004</v>
+        <v>0.3119768215356488</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3016830067422674</v>
+        <v>0.3029477070127816</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3873372946930012</v>
+        <v>0.3855687351356455</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02640621021531458</v>
+        <v>0.02734842371568102</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05389097457870796</v>
+        <v>0.05529243028619868</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07458260608540199</v>
+        <v>0.07507594909531251</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1680216879850393</v>
+        <v>0.1718602914695365</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1813750732861761</v>
+        <v>0.1799649187333998</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2288629419133454</v>
+        <v>0.2333706420283794</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3892090217737613</v>
+        <v>0.3920140203019374</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3835051901825283</v>
+        <v>0.3838860502914406</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.491582990039362</v>
+        <v>0.4899484203430992</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05407197267115471</v>
+        <v>0.05309359331937907</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08912077843102721</v>
+        <v>0.08796800485785367</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1149791885458779</v>
+        <v>0.115280654313036</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2111972251436917</v>
+        <v>0.2139030167867113</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2239002105445873</v>
+        <v>0.2249465822872194</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2902121916427235</v>
+        <v>0.289509500137203</v>
       </c>
     </row>
     <row r="28">
